--- a/AH_ACOGIDA INTEGRAL CONTINGENCIA_1hoja_Recibí18.xlsx
+++ b/AH_ACOGIDA INTEGRAL CONTINGENCIA_1hoja_Recibí18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B41394-0C23-4D83-B779-5B733DE5DA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A46D0C4-C548-42FE-BC37-500C923C9BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:O22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1747,7 +1747,7 @@
       <c r="S21" s="37"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -1769,7 +1769,7 @@
       <c r="S22" s="59"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -1791,7 +1791,7 @@
       <c r="S23" s="59"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -1813,7 +1813,7 @@
       <c r="S24" s="59"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -1835,7 +1835,7 @@
       <c r="S25" s="59"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55"/>
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
@@ -1857,7 +1857,7 @@
       <c r="S26" s="62"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>19</v>
       </c>
